--- a/物料清单汇总/所有新增物料清单.xlsx
+++ b/物料清单汇总/所有新增物料清单.xlsx
@@ -191,31 +191,31 @@
   </si>
   <si>
     <t>R0603排阻</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>22Ω/5%/0603</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>100K/1%/0805</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>PIN-S-2.54-1*2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>拨码开关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Header1*2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ADS1015芯片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DGS封装</t>
@@ -312,40 +312,48 @@
   </si>
   <si>
     <t>用完缺少的物料:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>直插按键（轻触开关），4.5*4.5*3.8MM</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>5.1K/5%/0805</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新增元器件物料：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0603排阻，4个一排</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>贴片拨码开关2位2.54mm间距</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -855,180 +863,180 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,13 +1378,13 @@
   <dimension ref="A1:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:F24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
@@ -3131,7 +3139,7 @@
       <c r="CW24" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3145,7 +3153,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3158,7 +3166,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>